--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_7_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_7_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-966921.7648109292</v>
+        <v>-969195.7849383663</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7230781.015117378</v>
+        <v>7230781.015117381</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>14.04590347118615</v>
+        <v>414.0459034711861</v>
       </c>
       <c r="H2" t="n">
         <v>326.6032504631755</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>41.82395421249793</v>
+        <v>70.9195164279446</v>
       </c>
       <c r="S2" t="n">
-        <v>180.3799638097597</v>
+        <v>180.3799638097598</v>
       </c>
       <c r="T2" t="n">
-        <v>217.594058536745</v>
+        <v>217.5940585367451</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>83.77182446326117</v>
+        <v>53.99163990778081</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -750,13 +750,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.6710516650733</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>105.7408432413276</v>
       </c>
       <c r="I3" t="n">
-        <v>66.24376372694834</v>
+        <v>66.2437637269484</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>58.4059850665347</v>
+        <v>58.40598506653481</v>
       </c>
       <c r="S3" t="n">
         <v>159.192419416944</v>
@@ -798,13 +798,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>243.2029027224219</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>66.69487901218598</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.5367433600327</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>59.08063271357081</v>
       </c>
       <c r="W4" t="n">
-        <v>139.1707509044305</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>321.5296920684223</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>255.1054333156526</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,7 +950,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>72.50296533826979</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>62.95369569505497</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>99.72812891921963</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>163.9206648785249</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>72.75305087075564</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,10 +1543,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>78.91636141687341</v>
+        <v>131.3542190999263</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1822,13 +1822,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>160.8695265197241</v>
       </c>
       <c r="W16" t="n">
-        <v>35.01527374485207</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>120.6353666620239</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2062,10 +2062,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>270.3808622796248</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>131.510602225328</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>60.49353368195955</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>126.095523708391</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>54.79076246174077</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>66.44957347303736</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>74.75769145492315</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>119.5976297100107</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,16 +2998,16 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800353</v>
+        <v>120.271684480036</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124587</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3269,16 +3269,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D35" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E35" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F35" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G35" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H35" t="n">
         <v>247.6326277687279</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3323,13 +3323,13 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V35" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515427</v>
       </c>
       <c r="W35" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X35" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y35" t="n">
         <v>339.262802037461</v>
@@ -3424,25 +3424,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D37" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247658</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3661,7 +3661,7 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800361</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
@@ -3679,7 +3679,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3797,7 +3797,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V41" t="n">
-        <v>280.7771218515437</v>
+        <v>280.7771218515427</v>
       </c>
       <c r="W41" t="n">
         <v>302.2658320988205</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797654</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145565</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4040,7 +4040,7 @@
         <v>302.2658320988205</v>
       </c>
       <c r="X44" t="n">
-        <v>322.7559640598776</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y44" t="n">
         <v>339.262802037461</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1161.234080086759</v>
+        <v>796.0228807308049</v>
       </c>
       <c r="C2" t="n">
-        <v>1161.234080086759</v>
+        <v>796.0228807308049</v>
       </c>
       <c r="D2" t="n">
-        <v>802.9683814800085</v>
+        <v>796.0228807308049</v>
       </c>
       <c r="E2" t="n">
-        <v>802.9683814800085</v>
+        <v>796.0228807308049</v>
       </c>
       <c r="F2" t="n">
-        <v>391.9824766904009</v>
+        <v>796.0228807308049</v>
       </c>
       <c r="G2" t="n">
         <v>377.7946954063744</v>
       </c>
       <c r="H2" t="n">
-        <v>47.89242221124766</v>
+        <v>47.89242221124758</v>
       </c>
       <c r="I2" t="n">
-        <v>47.89242221124766</v>
+        <v>47.89242221124758</v>
       </c>
       <c r="J2" t="n">
-        <v>141.6681220034134</v>
+        <v>141.668122003413</v>
       </c>
       <c r="K2" t="n">
-        <v>402.9583913971214</v>
+        <v>402.9583913971206</v>
       </c>
       <c r="L2" t="n">
-        <v>779.3887029883419</v>
+        <v>779.3887029883407</v>
       </c>
       <c r="M2" t="n">
-        <v>1214.846500462593</v>
+        <v>1214.846500462591</v>
       </c>
       <c r="N2" t="n">
-        <v>1642.718462811276</v>
+        <v>1642.718462811274</v>
       </c>
       <c r="O2" t="n">
-        <v>2001.558186006096</v>
+        <v>2001.558186006093</v>
       </c>
       <c r="P2" t="n">
-        <v>2270.14520479493</v>
+        <v>2270.145204794927</v>
       </c>
       <c r="Q2" t="n">
-        <v>2394.621110562383</v>
+        <v>2394.621110562379</v>
       </c>
       <c r="R2" t="n">
-        <v>2352.37469216592</v>
+        <v>2322.985235382637</v>
       </c>
       <c r="S2" t="n">
-        <v>2170.172708519699</v>
+        <v>2140.783251736415</v>
       </c>
       <c r="T2" t="n">
-        <v>1950.380730199754</v>
+        <v>1920.991273416471</v>
       </c>
       <c r="U2" t="n">
-        <v>1950.380730199754</v>
+        <v>1920.991273416471</v>
       </c>
       <c r="V2" t="n">
-        <v>1619.317842856183</v>
+        <v>1589.9283860729</v>
       </c>
       <c r="W2" t="n">
-        <v>1619.317842856183</v>
+        <v>1237.159730802786</v>
       </c>
       <c r="X2" t="n">
-        <v>1245.852084595104</v>
+        <v>1237.159730802786</v>
       </c>
       <c r="Y2" t="n">
-        <v>1161.234080086759</v>
+        <v>1182.622720794927</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>814.372237410008</v>
+        <v>850.7736993526772</v>
       </c>
       <c r="C3" t="n">
-        <v>814.372237410008</v>
+        <v>676.3206700715502</v>
       </c>
       <c r="D3" t="n">
-        <v>665.4378277487567</v>
+        <v>527.386260410299</v>
       </c>
       <c r="E3" t="n">
-        <v>506.2003727433013</v>
+        <v>368.1488054048434</v>
       </c>
       <c r="F3" t="n">
-        <v>359.6658147701863</v>
+        <v>221.6142474317284</v>
       </c>
       <c r="G3" t="n">
         <v>221.6142474317284</v>
@@ -4404,55 +4404,55 @@
         <v>114.8053148647308</v>
       </c>
       <c r="I3" t="n">
-        <v>47.89242221124766</v>
+        <v>47.89242221124758</v>
       </c>
       <c r="J3" t="n">
-        <v>47.89242221124766</v>
+        <v>110.0512068966007</v>
       </c>
       <c r="K3" t="n">
-        <v>280.752528858886</v>
+        <v>342.9113135442387</v>
       </c>
       <c r="L3" t="n">
-        <v>655.2660752554718</v>
+        <v>671.0126159984493</v>
       </c>
       <c r="M3" t="n">
-        <v>1144.284940877815</v>
+        <v>1160.031481620792</v>
       </c>
       <c r="N3" t="n">
-        <v>1661.953694139591</v>
+        <v>1677.700234882567</v>
       </c>
       <c r="O3" t="n">
-        <v>2069.103790323043</v>
+        <v>2084.850331066019</v>
       </c>
       <c r="P3" t="n">
-        <v>2378.874569819403</v>
+        <v>2394.621110562379</v>
       </c>
       <c r="Q3" t="n">
-        <v>2394.621110562383</v>
+        <v>2394.621110562379</v>
       </c>
       <c r="R3" t="n">
-        <v>2335.625166050732</v>
+        <v>2335.625166050728</v>
       </c>
       <c r="S3" t="n">
-        <v>2174.824742397253</v>
+        <v>2174.824742397249</v>
       </c>
       <c r="T3" t="n">
-        <v>1975.376034486429</v>
+        <v>1975.376034486425</v>
       </c>
       <c r="U3" t="n">
-        <v>1747.197104254327</v>
+        <v>1747.197104254323</v>
       </c>
       <c r="V3" t="n">
-        <v>1512.044996022584</v>
+        <v>1512.04499602258</v>
       </c>
       <c r="W3" t="n">
-        <v>1257.807639294383</v>
+        <v>1266.385498323164</v>
       </c>
       <c r="X3" t="n">
-        <v>1049.95613908885</v>
+        <v>1058.533998117631</v>
       </c>
       <c r="Y3" t="n">
-        <v>982.5875744300761</v>
+        <v>850.7736993526772</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47.89242221124766</v>
+        <v>47.89242221124758</v>
       </c>
       <c r="C4" t="n">
-        <v>47.89242221124766</v>
+        <v>47.89242221124758</v>
       </c>
       <c r="D4" t="n">
-        <v>47.89242221124766</v>
+        <v>47.89242221124758</v>
       </c>
       <c r="E4" t="n">
-        <v>47.89242221124766</v>
+        <v>47.89242221124758</v>
       </c>
       <c r="F4" t="n">
-        <v>47.89242221124766</v>
+        <v>47.89242221124758</v>
       </c>
       <c r="G4" t="n">
-        <v>47.89242221124766</v>
+        <v>47.89242221124758</v>
       </c>
       <c r="H4" t="n">
-        <v>47.89242221124766</v>
+        <v>47.89242221124758</v>
       </c>
       <c r="I4" t="n">
-        <v>47.89242221124766</v>
+        <v>47.89242221124758</v>
       </c>
       <c r="J4" t="n">
-        <v>47.89242221124766</v>
+        <v>47.89242221124758</v>
       </c>
       <c r="K4" t="n">
-        <v>90.6907364200009</v>
+        <v>90.69073642000066</v>
       </c>
       <c r="L4" t="n">
-        <v>200.9842782663081</v>
+        <v>200.9842782663077</v>
       </c>
       <c r="M4" t="n">
-        <v>327.6624769420744</v>
+        <v>327.6624769420737</v>
       </c>
       <c r="N4" t="n">
-        <v>456.7631676148799</v>
+        <v>456.7631676148791</v>
       </c>
       <c r="O4" t="n">
-        <v>559.9922554890151</v>
+        <v>559.992255489014</v>
       </c>
       <c r="P4" t="n">
-        <v>624.8018913124555</v>
+        <v>624.8018913124542</v>
       </c>
       <c r="Q4" t="n">
-        <v>624.8018913124555</v>
+        <v>624.8018913124542</v>
       </c>
       <c r="R4" t="n">
-        <v>624.8018913124555</v>
+        <v>624.8018913124542</v>
       </c>
       <c r="S4" t="n">
-        <v>624.8018913124555</v>
+        <v>624.8018913124542</v>
       </c>
       <c r="T4" t="n">
-        <v>624.8018913124555</v>
+        <v>396.9869990295929</v>
       </c>
       <c r="U4" t="n">
-        <v>624.8018913124555</v>
+        <v>396.9869990295929</v>
       </c>
       <c r="V4" t="n">
-        <v>370.1174031065686</v>
+        <v>337.3095922482082</v>
       </c>
       <c r="W4" t="n">
-        <v>229.5408870414874</v>
+        <v>47.89242221124758</v>
       </c>
       <c r="X4" t="n">
-        <v>229.5408870414874</v>
+        <v>47.89242221124758</v>
       </c>
       <c r="Y4" t="n">
-        <v>229.5408870414874</v>
+        <v>47.89242221124758</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>546.109828622464</v>
+        <v>1245.039635429691</v>
       </c>
       <c r="C5" t="n">
-        <v>546.109828622464</v>
+        <v>876.077118489279</v>
       </c>
       <c r="D5" t="n">
-        <v>546.109828622464</v>
+        <v>876.077118489279</v>
       </c>
       <c r="E5" t="n">
-        <v>546.109828622464</v>
+        <v>876.077118489279</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>465.0912136996714</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X5" t="n">
-        <v>936.2491605982757</v>
+        <v>1245.039635429691</v>
       </c>
       <c r="Y5" t="n">
-        <v>546.109828622464</v>
+        <v>1245.039635429691</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>444.0275768541693</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="C7" t="n">
-        <v>275.0913939262624</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="D7" t="n">
-        <v>275.0913939262624</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="E7" t="n">
-        <v>127.1783003438693</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="F7" t="n">
-        <v>127.1783003438693</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>117.5325734315311</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V7" t="n">
-        <v>444.0275768541693</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="W7" t="n">
-        <v>444.0275768541693</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="X7" t="n">
-        <v>444.0275768541693</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="Y7" t="n">
-        <v>444.0275768541693</v>
+        <v>286.5323736931987</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1369.416431066817</v>
+        <v>443.7744035713887</v>
       </c>
       <c r="C8" t="n">
-        <v>1369.416431066817</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.680947310029</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117851</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2531.572661847995</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2531.572661847995</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656313</v>
+        <v>2277.810876486087</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312743</v>
+        <v>1946.747989142516</v>
       </c>
       <c r="W8" t="n">
-        <v>1759.555763042629</v>
+        <v>1593.979333872402</v>
       </c>
       <c r="X8" t="n">
-        <v>1759.555763042629</v>
+        <v>1220.513575611322</v>
       </c>
       <c r="Y8" t="n">
-        <v>1369.416431066817</v>
+        <v>830.3742436355105</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4893,13 +4893,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>506.4943954681378</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>506.4943954681378</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>506.4943954681378</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>358.5813018857447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>579.9823256406182</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X10" t="n">
-        <v>579.9823256406182</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>506.4943954681378</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
@@ -5024,67 +5024,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>416.1091927888621</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,64 +5094,64 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161926</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5160,10 +5160,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>822.6328654632896</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C13" t="n">
-        <v>653.6966825353827</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D13" t="n">
-        <v>653.6966825353827</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E13" t="n">
-        <v>653.6966825353827</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5230,19 +5230,19 @@
         <v>1956.343466104704</v>
       </c>
       <c r="U13" t="n">
-        <v>1667.240599230347</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V13" t="n">
-        <v>1412.556111024461</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W13" t="n">
-        <v>1123.1389409875</v>
+        <v>1412.241807861856</v>
       </c>
       <c r="X13" t="n">
-        <v>1043.42544460682</v>
+        <v>1279.560778467991</v>
       </c>
       <c r="Y13" t="n">
-        <v>822.6328654632896</v>
+        <v>1058.768199324461</v>
       </c>
     </row>
     <row r="14">
@@ -5255,31 +5255,31 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>618.2595390972665</v>
       </c>
       <c r="L14" t="n">
         <v>1482.778354750621</v>
@@ -5288,34 +5288,34 @@
         <v>2461.32865758045</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807096</v>
+        <v>3441.080929807097</v>
       </c>
       <c r="O14" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5331,43 +5331,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
         <v>2125.96131142685</v>
@@ -5376,7 +5376,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5385,7 +5385,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U15" t="n">
         <v>2043.809373447819</v>
@@ -5394,7 +5394,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X15" t="n">
         <v>1346.568408282342</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>561.2936040684043</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C16" t="n">
-        <v>561.2936040684043</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D16" t="n">
-        <v>411.1769646560685</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E16" t="n">
         <v>263.2638710736754</v>
@@ -5437,16 +5437,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O16" t="n">
         <v>1646.12566951853</v>
@@ -5458,28 +5458,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U16" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>999.1036114208126</v>
+        <v>1001.463171152184</v>
       </c>
       <c r="W16" t="n">
-        <v>963.7346480421742</v>
+        <v>712.0460011152229</v>
       </c>
       <c r="X16" t="n">
-        <v>963.7346480421742</v>
+        <v>484.0564502172056</v>
       </c>
       <c r="Y16" t="n">
-        <v>742.942068898644</v>
+        <v>263.2638710736754</v>
       </c>
     </row>
     <row r="17">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5610,22 +5610,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839442</v>
+        <v>217.4149401676105</v>
       </c>
       <c r="C19" t="n">
         <v>95.56103444839442</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>999.1036114208126</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W19" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X19" t="n">
-        <v>498.0020784221642</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="Y19" t="n">
-        <v>277.2094992786341</v>
+        <v>399.0634049978502</v>
       </c>
     </row>
     <row r="20">
@@ -5729,22 +5729,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
@@ -5753,25 +5753,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>722.4071781934688</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1586.925993846824</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2120.457898518748</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>2667.236715577531</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
-        <v>3547.201365906985</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P20" t="n">
-        <v>4260.556453353931</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
@@ -5829,10 +5829,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L21" t="n">
         <v>794.2006632320242</v>
@@ -5847,22 +5847,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>619.8559841413803</v>
+        <v>658.619281250059</v>
       </c>
       <c r="C22" t="n">
-        <v>619.8559841413803</v>
+        <v>658.619281250059</v>
       </c>
       <c r="D22" t="n">
-        <v>487.0169919945844</v>
+        <v>508.5026418377232</v>
       </c>
       <c r="E22" t="n">
-        <v>339.1038984121913</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="F22" t="n">
-        <v>339.1038984121913</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H22" t="n">
         <v>192.8867116300491</v>
@@ -5932,28 +5932,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384228</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V22" t="n">
-        <v>909.2731541783409</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W22" t="n">
-        <v>619.8559841413803</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X22" t="n">
-        <v>619.8559841413803</v>
+        <v>840.2677460802987</v>
       </c>
       <c r="Y22" t="n">
-        <v>619.8559841413803</v>
+        <v>840.2677460802987</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -5990,16 +5990,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2649.230460361821</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
         <v>4075.973927750058</v>
@@ -6020,19 +6020,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
@@ -6069,7 +6069,7 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
         <v>794.2006632320243</v>
@@ -6084,22 +6084,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>391.866433243363</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="C25" t="n">
-        <v>222.930250315456</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="D25" t="n">
-        <v>222.930250315456</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="E25" t="n">
-        <v>222.930250315456</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="F25" t="n">
-        <v>222.930250315456</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6190,7 +6190,7 @@
         <v>391.866433243363</v>
       </c>
       <c r="Y25" t="n">
-        <v>391.866433243363</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="26">
@@ -6230,16 +6230,16 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364129</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P26" t="n">
         <v>4470.748294107237</v>
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>658.1567207524339</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C28" t="n">
-        <v>489.220537824527</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D28" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E28" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F28" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6385,7 +6385,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6397,37 +6397,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1900.999261597895</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1900.999261597895</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T28" t="n">
-        <v>1900.999261597895</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U28" t="n">
-        <v>1611.896394723539</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="V28" t="n">
-        <v>1357.211906517652</v>
+        <v>1198.376021052696</v>
       </c>
       <c r="W28" t="n">
-        <v>1067.794736480691</v>
+        <v>908.9588510157357</v>
       </c>
       <c r="X28" t="n">
-        <v>839.8051855826736</v>
+        <v>680.9693001177184</v>
       </c>
       <c r="Y28" t="n">
-        <v>839.8051855826736</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G29" t="n">
         <v>435.1415336001585</v>
@@ -6494,19 +6494,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839442</v>
+        <v>946.6652439534834</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839442</v>
+        <v>777.7290610255765</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839442</v>
+        <v>627.6124216132407</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6646,25 +6646,25 @@
         <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689057</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258583</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="U31" t="n">
-        <v>1163.957642384227</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="V31" t="n">
-        <v>909.27315417834</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="W31" t="n">
-        <v>619.8559841413794</v>
+        <v>1577.09583882527</v>
       </c>
       <c r="X31" t="n">
-        <v>391.8664332433621</v>
+        <v>1349.106287927253</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.0738540998319</v>
+        <v>1128.313708783723</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6704,13 +6704,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1237.706702364129</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N32" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O32" t="n">
         <v>4075.973927750059</v>
@@ -6725,25 +6725,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.5151678215057</v>
+        <v>788.5151678215059</v>
       </c>
       <c r="C34" t="n">
-        <v>667.028617841672</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D34" t="n">
-        <v>564.3616113774096</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E34" t="n">
-        <v>463.8981507430898</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F34" t="n">
-        <v>364.4578361932528</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G34" t="n">
-        <v>244.204632516045</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H34" t="n">
-        <v>145.4370786819761</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6901,7 +6901,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y34" t="n">
-        <v>922.713999703672</v>
+        <v>922.7139997036722</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G35" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J35" t="n">
         <v>437.4316968760676</v>
       </c>
       <c r="K35" t="n">
-        <v>771.251070565914</v>
+        <v>937.3106675423226</v>
       </c>
       <c r="L35" t="n">
-        <v>1222.285283814323</v>
+        <v>1388.344880790731</v>
       </c>
       <c r="M35" t="n">
-        <v>1755.817188486247</v>
+        <v>1921.876785462656</v>
       </c>
       <c r="N35" t="n">
-        <v>2302.596005545029</v>
+        <v>2468.655602521438</v>
       </c>
       <c r="O35" t="n">
-        <v>2805.568476424366</v>
+        <v>2971.628073400775</v>
       </c>
       <c r="P35" t="n">
-        <v>3474.791320094415</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q35" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W35" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J36" t="n">
         <v>174.8241863873064</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F37" t="n">
         <v>350.0437186415472</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H37" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M37" t="n">
         <v>1176.995117350173</v>
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D38" t="n">
         <v>1400.778593038484</v>
@@ -7160,61 +7160,61 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F38" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J38" t="n">
         <v>437.4316968760676</v>
       </c>
       <c r="K38" t="n">
-        <v>771.251070565914</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L38" t="n">
         <v>1222.285283814323</v>
       </c>
       <c r="M38" t="n">
-        <v>1755.817188486247</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N38" t="n">
-        <v>2302.596005545029</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O38" t="n">
-        <v>3080.016953737238</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P38" t="n">
-        <v>3474.791320094415</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q38" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U38" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W38" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y38" t="n">
         <v>2372.257749805548</v>
@@ -7227,73 +7227,73 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>956.1786549456135</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C39" t="n">
-        <v>781.7256256644865</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D39" t="n">
-        <v>632.7912160032353</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E39" t="n">
-        <v>473.5537609977798</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F39" t="n">
-        <v>327.0192030246648</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G39" t="n">
-        <v>190.6561028572829</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H39" t="n">
-        <v>100.1542084951504</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J39" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L39" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O39" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P39" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q39" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R39" t="n">
-        <v>2579.543989590361</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S39" t="n">
-        <v>2450.106103083841</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T39" t="n">
-        <v>2257.463102761697</v>
+        <v>2257.463102761698</v>
       </c>
       <c r="U39" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V39" t="n">
-        <v>1794.24314766437</v>
+        <v>1794.243147664371</v>
       </c>
       <c r="W39" t="n">
-        <v>1540.005790936168</v>
+        <v>1540.005790936169</v>
       </c>
       <c r="X39" t="n">
-        <v>1332.154290730635</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y39" t="n">
         <v>1124.393991965682</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698009</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H40" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J40" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N40" t="n">
         <v>1564.908879308444</v>
@@ -7351,31 +7351,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q40" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R40" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S40" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T40" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U40" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V40" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386256</v>
       </c>
       <c r="W40" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X40" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519665</v>
+        <v>908.2998821519673</v>
       </c>
     </row>
     <row r="41">
@@ -7403,46 +7403,46 @@
         <v>331.2808843398487</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J41" t="n">
         <v>437.4316968760676</v>
       </c>
       <c r="K41" t="n">
-        <v>771.2510705659141</v>
+        <v>810.8729904741861</v>
       </c>
       <c r="L41" t="n">
-        <v>1222.285283814323</v>
+        <v>1261.907203722595</v>
       </c>
       <c r="M41" t="n">
-        <v>1755.817188486248</v>
+        <v>2240.457506552423</v>
       </c>
       <c r="N41" t="n">
-        <v>2302.59600554503</v>
+        <v>2787.236323611206</v>
       </c>
       <c r="O41" t="n">
-        <v>2805.568476424367</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P41" t="n">
-        <v>3474.791320094415</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q41" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S41" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T41" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U41" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V41" t="n">
         <v>3346.282596468333</v>
@@ -7485,31 +7485,31 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I42" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L42" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O42" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P42" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q42" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R42" t="n">
         <v>2579.543989590362</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257039</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G43" t="n">
         <v>229.7905149643394</v>
@@ -7564,19 +7564,19 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I43" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982173</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N43" t="n">
         <v>1564.908879308444</v>
@@ -7585,10 +7585,10 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P43" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q43" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R43" t="n">
         <v>2271.591606277852</v>
@@ -7612,7 +7612,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="44">
@@ -7640,52 +7640,52 @@
         <v>331.2808843398487</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J44" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K44" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L44" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M44" t="n">
-        <v>2200.835586644152</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N44" t="n">
-        <v>2747.614403702934</v>
+        <v>2135.190356524676</v>
       </c>
       <c r="O44" t="n">
-        <v>3250.586874582271</v>
+        <v>2761.436232647469</v>
       </c>
       <c r="P44" t="n">
-        <v>3645.361240939449</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q44" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W44" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X44" t="n">
         <v>2714.947448833286</v>
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C45" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D45" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E45" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F45" t="n">
         <v>327.0192030246656</v>
@@ -7722,31 +7722,31 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L45" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O45" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P45" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q45" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R45" t="n">
         <v>2579.543989590362</v>
@@ -7789,40 +7789,40 @@
         <v>549.9474938257035</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913838</v>
+        <v>449.4840331913837</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415466</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643389</v>
       </c>
       <c r="H46" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J46" t="n">
         <v>172.7749345960313</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982172</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M46" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N46" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O46" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P46" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q46" t="n">
         <v>2313.972430572251</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>63.30438414308225</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>323.9592908162118</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.04773984088193</v>
+        <v>54.14214313080137</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,13 +8304,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8541,10 +8541,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783513</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>133.2530576400255</v>
+        <v>133.2530576400235</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9401,28 +9401,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>105.1996354507095</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>67.53663776704263</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9638,19 +9638,19 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>315.167921710932</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277313</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9887,7 +9887,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>170.1140909277313</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10361,7 +10361,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>167.736966642837</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10601,10 +10601,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>277.220684154416</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10835,10 +10835,10 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>277.2206841544163</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>277.2206841544135</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>8.633094239485217e-13</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -11060,13 +11060,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>40.02214132148697</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11075,10 +11075,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>277.2206841544144</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11303,19 +11303,19 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>124.5185911550063</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>40.02214132148688</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22547,16 +22547,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22601,7 +22601,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2451061843206</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>302.4661141927924</v>
+        <v>54.93481241708696</v>
       </c>
     </row>
     <row r="3">
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>146.7932939721637</v>
+        <v>94.35543628910733</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-1.047706872069251e-12</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>91.26811680410387</v>
       </c>
       <c r="W16" t="n">
-        <v>251.5077245917389</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>46.61145443660396</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>17.10487079288438</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,10 +24139,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>165.2161217070776</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24364,7 +24364,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,10 +24376,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>39.93028455063723</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>69.99732345939674</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.14139020830656</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>152.1350798790574</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>105.0742887270141</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>26.83633293655848</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,16 +24886,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>-7.105427357601002e-13</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-3.197442310920451e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>-7.958078640513122e-13</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>-9.023892744153272e-13</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1213221.301819326</v>
+        <v>1213221.301819325</v>
       </c>
     </row>
     <row r="3">
@@ -26320,19 +26320,19 @@
         <v>205260.4424660708</v>
       </c>
       <c r="E2" t="n">
+        <v>198540.8934434916</v>
+      </c>
+      <c r="F2" t="n">
+        <v>198540.8934434916</v>
+      </c>
+      <c r="G2" t="n">
         <v>198540.8934434915</v>
       </c>
-      <c r="F2" t="n">
-        <v>198540.8934434915</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>198540.8934434916</v>
       </c>
-      <c r="H2" t="n">
-        <v>198540.8934434915</v>
-      </c>
       <c r="I2" t="n">
-        <v>198540.8934434915</v>
+        <v>198540.8934434916</v>
       </c>
       <c r="J2" t="n">
         <v>198540.8934434915</v>
@@ -26344,16 +26344,16 @@
         <v>205260.4424660705</v>
       </c>
       <c r="M2" t="n">
-        <v>205260.4424660707</v>
+        <v>205260.4424660708</v>
       </c>
       <c r="N2" t="n">
+        <v>205260.4424660709</v>
+      </c>
+      <c r="O2" t="n">
+        <v>205260.4424660709</v>
+      </c>
+      <c r="P2" t="n">
         <v>205260.4424660708</v>
-      </c>
-      <c r="O2" t="n">
-        <v>205260.4424660708</v>
-      </c>
-      <c r="P2" t="n">
-        <v>205260.4424660709</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>501884.6814771933</v>
+        <v>501884.6814771922</v>
       </c>
       <c r="C3" t="n">
-        <v>83720.3126390434</v>
+        <v>83720.31263904442</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26375,7 +26375,7 @@
         <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>156634.561462996</v>
+        <v>156634.5614629956</v>
       </c>
       <c r="K3" t="n">
-        <v>19465.25531848945</v>
+        <v>19465.25531848985</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487405</v>
+        <v>37580.10929487407</v>
       </c>
       <c r="M3" t="n">
-        <v>84741.61795950537</v>
+        <v>84741.61795950528</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>194330.6670587446</v>
+        <v>194330.6670587448</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26427,37 +26427,37 @@
         <v>25090.72367499382</v>
       </c>
       <c r="F4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499379</v>
       </c>
       <c r="G4" t="n">
         <v>25090.72367499382</v>
       </c>
       <c r="H4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.7236749938</v>
       </c>
       <c r="I4" t="n">
         <v>25090.72367499382</v>
       </c>
       <c r="J4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499384</v>
       </c>
       <c r="K4" t="n">
         <v>25090.72367499385</v>
       </c>
       <c r="L4" t="n">
-        <v>40547.88465321289</v>
+        <v>40547.88465321291</v>
       </c>
       <c r="M4" t="n">
         <v>62292.78252777379</v>
       </c>
       <c r="N4" t="n">
-        <v>62292.78252777378</v>
+        <v>62292.78252777374</v>
       </c>
       <c r="O4" t="n">
-        <v>62292.78252777374</v>
+        <v>62292.78252777376</v>
       </c>
       <c r="P4" t="n">
-        <v>62292.78252777374</v>
+        <v>62292.78252777379</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76841.33769237212</v>
+        <v>76841.33769237206</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26491,7 +26491,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371364</v>
@@ -26506,10 +26506,10 @@
         <v>89377.94167480612</v>
       </c>
       <c r="O5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="P5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.9416748061</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-581084.2499809189</v>
+        <v>-581217.1300431048</v>
       </c>
       <c r="C6" t="n">
-        <v>-162383.4541641136</v>
+        <v>-162383.4541641146</v>
       </c>
       <c r="D6" t="n">
         <v>-78663.14152507024</v>
       </c>
       <c r="E6" t="n">
-        <v>-650310.7624786227</v>
+        <v>-650377.9579688484</v>
       </c>
       <c r="F6" t="n">
-        <v>77066.65151478401</v>
+        <v>76999.45602455817</v>
       </c>
       <c r="G6" t="n">
-        <v>77066.6515147841</v>
+        <v>76999.45602455843</v>
       </c>
       <c r="H6" t="n">
-        <v>77066.65151478401</v>
+        <v>76999.45602455834</v>
       </c>
       <c r="I6" t="n">
-        <v>77066.65151478404</v>
+        <v>76999.45602455831</v>
       </c>
       <c r="J6" t="n">
-        <v>-79567.90994821205</v>
+        <v>-79635.10543843741</v>
       </c>
       <c r="K6" t="n">
-        <v>57601.39619629461</v>
+        <v>57534.20070606838</v>
       </c>
       <c r="L6" t="n">
-        <v>26799.77750388147</v>
+        <v>26799.7775038814</v>
       </c>
       <c r="M6" t="n">
-        <v>-31151.89969601455</v>
+        <v>-31151.89969601438</v>
       </c>
       <c r="N6" t="n">
-        <v>53589.71826349094</v>
+        <v>53589.718263491</v>
       </c>
       <c r="O6" t="n">
-        <v>53589.71826349098</v>
+        <v>53589.71826349104</v>
       </c>
       <c r="P6" t="n">
-        <v>53589.71826349104</v>
+        <v>53589.71826349087</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>312.6374684322896</v>
+        <v>312.6374684322888</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26747,7 +26747,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>598.6552776405957</v>
+        <v>598.6552776405948</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26820,16 +26820,16 @@
         <v>1194.51293060493</v>
       </c>
       <c r="M4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="N4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="O4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="P4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
     </row>
   </sheetData>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>312.6374684322896</v>
+        <v>312.6374684322888</v>
       </c>
       <c r="C3" t="n">
-        <v>65.10619578479702</v>
+        <v>65.10619578479782</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26969,7 +26969,7 @@
         <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>598.6552776405957</v>
+        <v>598.6552776405948</v>
       </c>
       <c r="C4" t="n">
-        <v>75.63199511395985</v>
+        <v>75.63199511396077</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>598.6552776405957</v>
+        <v>598.6552776405948</v>
       </c>
       <c r="K4" t="n">
-        <v>75.63199511395985</v>
+        <v>75.63199511396077</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>340.0491884540592</v>
+        <v>340.0491884540588</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>598.6552776405957</v>
+        <v>598.6552776405948</v>
       </c>
       <c r="K4" t="n">
-        <v>75.63199511395985</v>
+        <v>75.63199511396077</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>162.0217950910658</v>
+        <v>162.0217950910659</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>29.09556221544647</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2451061843206</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>277.3114863311858</v>
       </c>
     </row>
     <row r="3">
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.6710516650733</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27518,13 +27518,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>8.492080438497709</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>138.9878167651184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27555,10 +27555,10 @@
         <v>157.2147226037219</v>
       </c>
       <c r="I4" t="n">
-        <v>138.4962987703072</v>
+        <v>138.4962987703073</v>
       </c>
       <c r="J4" t="n">
-        <v>53.50046549375612</v>
+        <v>53.50046549375622</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,25 +27579,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.95378551841866</v>
+        <v>38.95378551841878</v>
       </c>
       <c r="R4" t="n">
-        <v>151.9441304121514</v>
+        <v>151.9441304121515</v>
       </c>
       <c r="S4" t="n">
         <v>214.1915812011575</v>
       </c>
       <c r="T4" t="n">
-        <v>225.5367433600327</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2882781300877</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>193.0570106102572</v>
       </c>
       <c r="W4" t="n">
-        <v>147.3522474321605</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,10 +27625,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>85.34635367328917</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>158.6787367051424</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2.202682480856311e-13</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27774,22 +27774,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>94.80683692078112</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>93.21719314674019</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>254.9549127014633</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27901,7 +27901,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>10.49504793044667</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28017,16 +28017,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>63.37316471551392</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>145.8316024813391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-12</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28311,7 +28311,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>3.534950110406498e-12</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859216</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="38">
@@ -30241,7 +30241,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859125</v>
+        <v>46.97513661859216</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859142</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.256834043948902</v>
+        <v>1.256834043948899</v>
       </c>
       <c r="H2" t="n">
-        <v>12.8715516525917</v>
+        <v>12.87155165259166</v>
       </c>
       <c r="I2" t="n">
-        <v>48.45409447934009</v>
+        <v>48.45409447933996</v>
       </c>
       <c r="J2" t="n">
-        <v>106.6722184376082</v>
+        <v>106.672218437608</v>
       </c>
       <c r="K2" t="n">
-        <v>159.8740035179653</v>
+        <v>159.8740035179649</v>
       </c>
       <c r="L2" t="n">
-        <v>198.3378383904665</v>
+        <v>198.337838390466</v>
       </c>
       <c r="M2" t="n">
-        <v>220.6890608195428</v>
+        <v>220.6890608195422</v>
       </c>
       <c r="N2" t="n">
-        <v>224.2600405469126</v>
+        <v>224.2600405469121</v>
       </c>
       <c r="O2" t="n">
-        <v>211.7623970223957</v>
+        <v>211.7623970223952</v>
       </c>
       <c r="P2" t="n">
-        <v>180.7343065624072</v>
+        <v>180.7343065624067</v>
       </c>
       <c r="Q2" t="n">
-        <v>135.7239373634871</v>
+        <v>135.7239373634867</v>
       </c>
       <c r="R2" t="n">
-        <v>78.94960151320528</v>
+        <v>78.94960151320508</v>
       </c>
       <c r="S2" t="n">
-        <v>28.64010577648563</v>
+        <v>28.64010577648556</v>
       </c>
       <c r="T2" t="n">
-        <v>5.501791027386322</v>
+        <v>5.501791027386307</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1005467235159121</v>
+        <v>0.1005467235159119</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6724654981373777</v>
+        <v>0.672465498137376</v>
       </c>
       <c r="H3" t="n">
-        <v>6.494600995168885</v>
+        <v>6.494600995168869</v>
       </c>
       <c r="I3" t="n">
-        <v>23.15286912446673</v>
+        <v>23.15286912446668</v>
       </c>
       <c r="J3" t="n">
-        <v>63.53324252358445</v>
+        <v>63.53324252358428</v>
       </c>
       <c r="K3" t="n">
-        <v>108.5884308987887</v>
+        <v>108.5884308987885</v>
       </c>
       <c r="L3" t="n">
-        <v>146.0105459881179</v>
+        <v>146.0105459881175</v>
       </c>
       <c r="M3" t="n">
-        <v>170.3874202955978</v>
+        <v>170.3874202955974</v>
       </c>
       <c r="N3" t="n">
-        <v>174.8970683072297</v>
+        <v>174.8970683072292</v>
       </c>
       <c r="O3" t="n">
-        <v>159.9966485853435</v>
+        <v>159.9966485853431</v>
       </c>
       <c r="P3" t="n">
-        <v>128.4114160434436</v>
+        <v>128.4114160434433</v>
       </c>
       <c r="Q3" t="n">
-        <v>85.83963095522036</v>
+        <v>85.83963095522014</v>
       </c>
       <c r="R3" t="n">
-        <v>41.75184908610843</v>
+        <v>41.75184908610832</v>
       </c>
       <c r="S3" t="n">
-        <v>12.49075168689383</v>
+        <v>12.49075168689379</v>
       </c>
       <c r="T3" t="n">
-        <v>2.710507863106359</v>
+        <v>2.710507863106352</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04424115119324855</v>
+        <v>0.04424115119324844</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5637724840582271</v>
+        <v>0.5637724840582257</v>
       </c>
       <c r="H4" t="n">
-        <v>5.012449903717695</v>
+        <v>5.012449903717683</v>
       </c>
       <c r="I4" t="n">
-        <v>16.95417615695105</v>
+        <v>16.95417615695101</v>
       </c>
       <c r="J4" t="n">
-        <v>39.85871462291665</v>
+        <v>39.85871462291655</v>
       </c>
       <c r="K4" t="n">
-        <v>65.50011223876491</v>
+        <v>65.50011223876474</v>
       </c>
       <c r="L4" t="n">
-        <v>83.81759276625679</v>
+        <v>83.81759276625658</v>
       </c>
       <c r="M4" t="n">
-        <v>88.37389947832735</v>
+        <v>88.37389947832713</v>
       </c>
       <c r="N4" t="n">
-        <v>86.2725656741104</v>
+        <v>86.27256567411017</v>
       </c>
       <c r="O4" t="n">
-        <v>79.68667801943016</v>
+        <v>79.68667801942996</v>
       </c>
       <c r="P4" t="n">
-        <v>68.18571934464228</v>
+        <v>68.18571934464211</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.20825773327573</v>
+        <v>47.20825773327561</v>
       </c>
       <c r="R4" t="n">
-        <v>25.3492609650181</v>
+        <v>25.34926096501803</v>
       </c>
       <c r="S4" t="n">
-        <v>9.825016835814736</v>
+        <v>9.825016835814711</v>
       </c>
       <c r="T4" t="n">
-        <v>2.408846068248788</v>
+        <v>2.408846068248782</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03075122640317606</v>
+        <v>0.03075122640317598</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31996,40 +31996,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32148,43 +32148,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32786,7 +32786,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.72292908299571</v>
+        <v>94.72292908299544</v>
       </c>
       <c r="K2" t="n">
-        <v>263.9295650441495</v>
+        <v>263.9295650441491</v>
       </c>
       <c r="L2" t="n">
-        <v>380.2326379709297</v>
+        <v>380.2326379709292</v>
       </c>
       <c r="M2" t="n">
-        <v>439.8563610851025</v>
+        <v>439.856361085102</v>
       </c>
       <c r="N2" t="n">
-        <v>432.1939013623059</v>
+        <v>432.1939013623053</v>
       </c>
       <c r="O2" t="n">
-        <v>362.4643668634544</v>
+        <v>362.4643668634538</v>
       </c>
       <c r="P2" t="n">
-        <v>271.3000189786203</v>
+        <v>271.3000189786198</v>
       </c>
       <c r="Q2" t="n">
-        <v>125.7332381489423</v>
+        <v>125.7332381489419</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>62.78665119732643</v>
       </c>
       <c r="K3" t="n">
-        <v>235.2122289370083</v>
+        <v>235.2122289370081</v>
       </c>
       <c r="L3" t="n">
-        <v>378.2965115117029</v>
+        <v>331.4154570244551</v>
       </c>
       <c r="M3" t="n">
-        <v>493.9584501235794</v>
+        <v>493.958450123579</v>
       </c>
       <c r="N3" t="n">
-        <v>522.8977305674499</v>
+        <v>522.8977305674495</v>
       </c>
       <c r="O3" t="n">
-        <v>411.2627234176286</v>
+        <v>411.2627234176282</v>
       </c>
       <c r="P3" t="n">
-        <v>312.8997772690506</v>
+        <v>312.8997772690502</v>
       </c>
       <c r="Q3" t="n">
-        <v>15.90559671008077</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>43.23062041288206</v>
+        <v>43.23062041288189</v>
       </c>
       <c r="L4" t="n">
-        <v>111.4076180265729</v>
+        <v>111.4076180265727</v>
       </c>
       <c r="M4" t="n">
-        <v>127.9577764401679</v>
+        <v>127.9577764401677</v>
       </c>
       <c r="N4" t="n">
-        <v>130.404738053339</v>
+        <v>130.4047380533387</v>
       </c>
       <c r="O4" t="n">
-        <v>104.2718059334698</v>
+        <v>104.2718059334696</v>
       </c>
       <c r="P4" t="n">
-        <v>65.46427860953577</v>
+        <v>65.4642786095356</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35261,10 +35261,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262116</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>323.7860185257249</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O14" t="n">
-        <v>641.3060585282446</v>
+        <v>641.3060585282428</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>442.39092200611</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>575.5896386552618</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36358,19 +36358,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>854.0890375411587</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200632</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36765,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>625.7042053200632</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M32" t="n">
         <v>988.434649323059</v>
@@ -37081,7 +37081,7 @@
         <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509644</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193716</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861326</v>
@@ -37242,7 +37242,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37306,7 +37306,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>504.9282531982374</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923319</v>
@@ -37321,10 +37321,10 @@
         <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>675.9826703737876</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
         <v>391.8320827861326</v>
@@ -37479,7 +37479,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3693751564862</v>
@@ -37543,25 +37543,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>785.2736850426353</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>675.9826703737854</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37780,25 +37780,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>377.2134278768874</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>675.9826703737863</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>632.5715920432253</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q44" t="n">
-        <v>290.8164461252064</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
